--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -40,100 +40,100 @@
     <t>name</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +499,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +578,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -610,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.2267441860465116</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +628,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>399</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7012987012987013</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="C5">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,169 +678,97 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.9347826086956522</v>
+      </c>
+      <c r="L5">
+        <v>43</v>
+      </c>
+      <c r="M5">
+        <v>43</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="M6">
+        <v>30</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L7">
+        <v>95</v>
+      </c>
+      <c r="M7">
+        <v>95</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>17</v>
       </c>
-      <c r="K5">
-        <v>0.9</v>
-      </c>
-      <c r="L5">
-        <v>36</v>
-      </c>
-      <c r="M5">
-        <v>36</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.3476394849785407</v>
-      </c>
-      <c r="C6">
-        <v>81</v>
-      </c>
-      <c r="D6">
-        <v>81</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>152</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L6">
-        <v>16</v>
-      </c>
-      <c r="M6">
-        <v>16</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.25</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>60</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L7">
-        <v>23</v>
-      </c>
-      <c r="M7">
-        <v>23</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C8">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>67</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8431372549019608</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -852,21 +780,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.8392857142857143</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -878,21 +806,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.78125</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -904,21 +832,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.775</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -930,21 +858,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7647058823529411</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -956,21 +884,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.7586206896551724</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -982,21 +910,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.6971830985915493</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1008,21 +936,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.717948717948718</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1034,21 +962,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6986301369863014</v>
+        <v>0.6875</v>
       </c>
       <c r="L16">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1060,21 +988,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6551724137931034</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1086,21 +1014,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6153846153846154</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1112,21 +1040,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6060606060606061</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1138,21 +1066,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1164,21 +1092,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5586854460093896</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L21">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1190,21 +1118,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5333333333333333</v>
+        <v>0.5248041775456919</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1216,21 +1144,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5208333333333334</v>
+        <v>0.461764705882353</v>
       </c>
       <c r="L23">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="M23">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1242,21 +1170,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>69</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1268,21 +1196,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.4857142857142857</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1294,21 +1222,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.4782608695652174</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L26">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="M26">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1320,33 +1248,111 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>48</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27">
+        <v>0.3640167364016736</v>
+      </c>
+      <c r="L27">
+        <v>87</v>
+      </c>
+      <c r="M27">
+        <v>87</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="L28">
+        <v>28</v>
+      </c>
+      <c r="M28">
+        <v>28</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29">
+        <v>0.01403180542563143</v>
+      </c>
+      <c r="L29">
+        <v>30</v>
+      </c>
+      <c r="M29">
+        <v>35</v>
+      </c>
+      <c r="N29">
+        <v>0.86</v>
+      </c>
+      <c r="O29">
+        <v>0.14</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K27">
-        <v>0.4573643410852713</v>
-      </c>
-      <c r="L27">
-        <v>59</v>
-      </c>
-      <c r="M27">
-        <v>59</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>70</v>
+      <c r="K30">
+        <v>0.00837898807605543</v>
+      </c>
+      <c r="L30">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <v>0.87</v>
+      </c>
+      <c r="O30">
+        <v>0.13</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>3077</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -40,15 +40,18 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -67,34 +70,37 @@
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
@@ -103,9 +109,6 @@
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
@@ -115,22 +118,19 @@
     <t>like</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -491,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +499,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5958904109589042</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,10 +578,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3">
         <v>0.9615384615384616</v>
@@ -610,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2267441860465116</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C4">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="D4">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4">
         <v>0.9491525423728814</v>
@@ -660,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1957671957671958</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,21 +702,45 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.2073643410852713</v>
+      </c>
+      <c r="C6">
+        <v>107</v>
+      </c>
+      <c r="D6">
+        <v>107</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>409</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -728,12 +752,12 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7">
         <v>0.8482142857142857</v>
@@ -759,16 +783,16 @@
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8275862068965517</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -780,21 +804,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.796875</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -806,21 +830,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.78125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -832,21 +856,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.775</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L11">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -858,21 +882,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7682926829268293</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L12">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="M12">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -884,21 +908,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7450980392156863</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -910,21 +934,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6971830985915493</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -936,21 +960,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6886792452830188</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L15">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -962,21 +986,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6875</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -988,21 +1012,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6595744680851063</v>
+        <v>0.6875</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1014,21 +1038,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6349206349206349</v>
+        <v>0.625</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1040,21 +1064,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6063829787234043</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L19">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1066,21 +1090,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5833333333333334</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1092,12 +1116,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K21">
         <v>0.5600000000000001</v>
@@ -1123,16 +1147,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5248041775456919</v>
+        <v>0.5221932114882507</v>
       </c>
       <c r="L22">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M22">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1144,21 +1168,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.461764705882353</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L23">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M23">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1170,21 +1194,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4383561643835616</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1196,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4382022471910113</v>
+        <v>0.4474576271186441</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1222,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>50</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.423728813559322</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L26">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1248,21 +1272,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>170</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3640167364016736</v>
+        <v>0.393305439330544</v>
       </c>
       <c r="L27">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M27">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1274,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.358974358974359</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1300,59 +1324,33 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.01403180542563143</v>
+        <v>0.009342783505154639</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N29">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="O29">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30">
-        <v>0.00837898807605543</v>
-      </c>
-      <c r="L30">
-        <v>26</v>
-      </c>
-      <c r="M30">
-        <v>30</v>
-      </c>
-      <c r="N30">
-        <v>0.87</v>
-      </c>
-      <c r="O30">
-        <v>0.13</v>
-      </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>3077</v>
+        <v>3075</v>
       </c>
     </row>
   </sheetData>
